--- a/Historias de Usuario/02_Historia_Usuario.xlsx
+++ b/Historias de Usuario/02_Historia_Usuario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\CICLO 3 PROYECTO\Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351ECF06-6857-4BBC-B11F-96DB4D544E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22737B-6678-430A-8C17-01D6A4AFDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Descripción: Generar el product backlog preliminar</t>
   </si>
   <si>
-    <t>Desarrollador Frond End</t>
-  </si>
-  <si>
     <t>Descripción: A lo largo de proyecto llevara acabo las siguientes tareas preliminares 
 Plantilla Frond end
 Generacion de Botones
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Observaciones: Se debera encargar de testear todas las herramientas desarrolladas desde los diferentes frentes de trabajo</t>
+  </si>
+  <si>
+    <t>Desarrollador Front End</t>
   </si>
 </sst>
 </file>
@@ -238,6 +238,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -254,23 +260,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="12" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:F99"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,54 +503,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -575,7 +575,7 @@
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>44317</v>
       </c>
       <c r="F7" s="11"/>
@@ -591,7 +591,7 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="22">
         <v>6.5</v>
       </c>
       <c r="F8" s="11"/>
@@ -607,159 +607,159 @@
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="22">
         <v>8</v>
       </c>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="19">
         <v>2</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="7"/>
@@ -777,7 +777,7 @@
       <c r="D27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="17">
         <v>44256</v>
       </c>
       <c r="F27" s="11"/>
@@ -815,153 +815,153 @@
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="19">
         <v>1</v>
       </c>
-      <c r="C44" s="14"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="7"/>
@@ -979,7 +979,7 @@
       <c r="D47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="17">
         <v>44256</v>
       </c>
       <c r="F47" s="11"/>
@@ -1017,153 +1017,153 @@
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="A50" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="19">
         <v>1</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="14"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="7"/>
@@ -1181,7 +1181,7 @@
       <c r="D67" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="17">
         <v>44256</v>
       </c>
       <c r="F67" s="11"/>
@@ -1219,153 +1219,153 @@
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="19">
         <v>1</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="7"/>
@@ -1383,7 +1383,7 @@
       <c r="D87" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="17">
         <v>44256</v>
       </c>
       <c r="F87" s="11"/>
@@ -1421,135 +1421,122 @@
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="A90:F94"/>
-    <mergeCell ref="A95:F99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A81:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A70:F74"/>
-    <mergeCell ref="A75:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A61:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A55:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
@@ -1566,29 +1553,42 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A50:F54"/>
-    <mergeCell ref="A55:F59"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A61:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:F74"/>
+    <mergeCell ref="A75:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="A90:F94"/>
+    <mergeCell ref="A95:F99"/>
+    <mergeCell ref="A100:F100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Historias de Usuario/02_Historia_Usuario.xlsx
+++ b/Historias de Usuario/02_Historia_Usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\CICLO 3 PROYECTO\Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22737B-6678-430A-8C17-01D6A4AFDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84840C1B-514C-4806-8976-3D9D913716DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
   <si>
     <t>HISTORIAS DE USUARIO</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Desarrollador Front End</t>
+  </si>
+  <si>
+    <t>Observaciones: Actualizar documentacion del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones: conexión entre el frontend y backend </t>
+  </si>
+  <si>
+    <t>Descripción:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones: conexión entre el base de datos y blackend </t>
+  </si>
+  <si>
+    <t>Desarrollador Backend</t>
+  </si>
+  <si>
+    <t>Observaciones: Manejo y uso de DJANGO</t>
   </si>
 </sst>
 </file>
@@ -205,14 +223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,23 +237,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -250,7 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -260,17 +266,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="12" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +496,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:C66"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A113" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,1040 +509,1894 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>44317</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="16">
         <v>6.5</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="16">
         <v>8</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <v>2</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>44256</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>2</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>3</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="15">
         <v>1</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="16"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="13">
         <v>44256</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="6">
         <v>2</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <v>3</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="15">
         <v>1</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="9" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="7"/>
+      <c r="D67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="13">
         <v>44256</v>
       </c>
-      <c r="F67" s="11"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="6">
         <v>2</v>
       </c>
-      <c r="F68" s="11"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="6">
         <v>3</v>
       </c>
-      <c r="F69" s="11"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="15">
         <v>1</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="9" t="s">
+      <c r="C84" s="12"/>
+      <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="16"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="7"/>
+      <c r="D87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="13">
         <v>44256</v>
       </c>
-      <c r="F87" s="11"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="7"/>
+      <c r="D88" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="6">
         <v>2</v>
       </c>
-      <c r="F88" s="11"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="7"/>
+      <c r="D89" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="6">
         <v>3</v>
       </c>
-      <c r="F89" s="11"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="15">
+        <v>1</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="13">
+        <v>44317</v>
+      </c>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="16">
+        <v>8</v>
+      </c>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="15">
+        <v>2</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="13">
+        <v>44256</v>
+      </c>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="6">
+        <v>2</v>
+      </c>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="6">
+        <v>3</v>
+      </c>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="15">
+        <v>2</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" s="12"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="11"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="13">
+        <v>44256</v>
+      </c>
+      <c r="F146" s="7"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="6">
+        <v>2</v>
+      </c>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="6">
+        <v>3</v>
+      </c>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="11"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="15">
+        <v>2</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F162" s="12"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="11"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="13">
+        <v>44256</v>
+      </c>
+      <c r="F165" s="7"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="6">
+        <v>2</v>
+      </c>
+      <c r="F166" s="7"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="6">
+        <v>3</v>
+      </c>
+      <c r="F167" s="7"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A50:F54"/>
-    <mergeCell ref="A55:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
+  <mergeCells count="132">
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:F172"/>
+    <mergeCell ref="A173:F177"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="A149:F153"/>
+    <mergeCell ref="A154:F158"/>
+    <mergeCell ref="A159:F160"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="A130:F134"/>
+    <mergeCell ref="A135:F139"/>
+    <mergeCell ref="A140:F141"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="A121:F122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="A110:F114"/>
+    <mergeCell ref="A115:F119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="A101:F102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="A90:F94"/>
+    <mergeCell ref="A95:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A81:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:F74"/>
+    <mergeCell ref="A75:F79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A61:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
@@ -1553,44 +2413,35 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A61:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A70:F74"/>
-    <mergeCell ref="A75:F79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="A90:F94"/>
-    <mergeCell ref="A95:F99"/>
-    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A55:F59"/>
+    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="60" max="5" man="1"/>
+    <brk id="119" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>